--- a/reflection/Controller.xlsx
+++ b/reflection/Controller.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_workingspace\SeleniumProject1\reflection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CloneCopy\morningJan2026\reflection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7445ADA7-6338-433A-80F5-6F72AA6306B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722F69A-B6D8-47F9-9A32-DD872B8F0038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7236" yWindow="2448" windowWidth="9480" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -425,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/reflection/Controller.xlsx
+++ b/reflection/Controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CloneCopy\morningJan2026\reflection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722F69A-B6D8-47F9-9A32-DD872B8F0038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5313FC8-92D6-4FF3-B81C-ECE0D94E38EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7236" yWindow="2448" windowWidth="9480" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -425,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
